--- a/biology/Botanique/Jardin_Hama-rikyū/Jardin_Hama-rikyū.xlsx
+++ b/biology/Botanique/Jardin_Hama-rikyū/Jardin_Hama-rikyū.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Hama-riky%C5%AB</t>
+          <t>Jardin_Hama-rikyū</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Hama-rikyū (浜離宮恩賜庭園, Hama-rikyū onshi teien?, « jardin du palais isolé de la plage, don impérial ») est un jardin japonais de Tokyo, au Japon. Ce jardin de promenade (kaiyū-shiki) se trouve à proximité du quartier de Shiodome, dans l'arrondissement de Chūō, à l'embouchure de la Sumida dans la baie de Tokyo. Sa superficie est de 25 hectares, et il est bordé sur trois côtés par une douve remplie d'eau de mer.
-Le jardin existe depuis le XVIIe siècle ; à ses débuts, il faisait partie d'une villa de la famille Tokugawa[1]. Il est ouvert au public depuis 1946. C'est un des 29 « sites à la beauté exceptionnelle du paysage » du Japon, selon la classification du ministère de la Culture.
+Le jardin existe depuis le XVIIe siècle ; à ses débuts, il faisait partie d'une villa de la famille Tokugawa. Il est ouvert au public depuis 1946. C'est un des 29 « sites à la beauté exceptionnelle du paysage » du Japon, selon la classification du ministère de la Culture.
 Le jardin se divise en deux parties : la plus ancienne (époque d'Edo) au sud, centrée sur l'ancien jardin du daimyo[Lequel ?], et où se trouve une lagune qui se remplit à marée haute, et un jardin plus récent au nord, aménagé durant l'ère Meiji.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Hama-riky%C5%AB</t>
+          <t>Jardin_Hama-rikyū</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terrain où se situe le jardin était à l'origine une zone marécageuse en bordure de la baie de Tokyo, qui se remplissait d'eau de mer à marée haute. Il abritait deux cabanes construites pour la chasse au canard. En 1654, le frère cadet de Tokugawa Ietsuna, Tsunashige Matsudaira, en décide le comblement partiel via un terre-plein, afin d'y construire une résidence et un jardin, destinés à accueillir les daimyos en visite à Edo. Celle-ci est nommée Kōfu Hama-yashiki (« pavillon de plage de Kōfu », Tsunashige Matsudaira étant le seigneur de Kōfu). Sous le shogunat de son fils Tokugawa Ienobu, la villa passe sous le contrôle direct du clan Tokugawa, et devient Hama-goden (« palais de plage »). La villa brûle une première fois en 1725, avec tous les autres bâtiments, lors d'un grave incendie qui endommage tout le site. Le jardin est restauré et progressivement aménagé par les shoguns successifs, qui y font construire plusieurs maisons de thé, comme la « maison de thé de l'hirondelle » ou la « maison de thé du pin ».
 Le jardin prend sa forme définitive sous le shogunat de Tokugawa Ienari.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Hama-riky%C5%AB</t>
+          <t>Jardin_Hama-rikyū</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Éléments remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Shiori-no-ike (潮入の池?, « lagune de la marée montante ») : le plus grand des plans d'eau du parc, c'est une lagune artificielle dont le niveau varie en fonction de la marée, par l'intermédiaire d'une porte d'écluse. De nombreux poissons d'eau de mer y vivent, comme des mulets ou des anguilles. Nakajima (中島?, « île centrale ») est une île construite au milieu de la lagune, reliée à la rive par trois ponts, dont O-tsutai-bashi, un pont en hinoki faux-cyprès de 118 m.
 Nakajima-no-ochaya (中島の御茶屋?, « maison de thé de l'île centrale ») est une maison de thé installée sur cette île, toujours en activité. Construite en 1707, elle offrait une vue sur la mer ; c'était un lieu de détente de la noblesse d'Edo. Elle a été détruite en 1724 et 1944, et restaurée dans sa forme d'origine en 1983.
